--- a/doc/0100_test_excel_file.xlsx
+++ b/doc/0100_test_excel_file.xlsx
@@ -14,12 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
+  <si>
+    <t>{requestTitle}</t>
+  </si>
+  <si>
+    <t>{approver}</t>
+  </si>
+  <si>
+    <t>{requestNo}</t>
+  </si>
+  <si>
+    <t>{devCompletionDate}</t>
+  </si>
+  <si>
+    <t>{developer}</t>
+  </si>
+  <si>
+    <t>{deployDate}</t>
+  </si>
+  <si>
+    <t>{author}</t>
+  </si>
+  <si>
+    <t>{testData}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -31,6 +56,15 @@
       <color rgb="FF000000"/>
       <name val="&quot;Apple SD Gothic Neo&quot;"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,18 +74,35 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -288,7 +339,33 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -304,7 +381,46 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5">
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -318,7 +434,43 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -332,7 +484,93 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="J16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>